--- a/Multiknapsack/results/fixed_recourse/singlecut/M100_N200_T0_a50_ccg.xlsx
+++ b/Multiknapsack/results/fixed_recourse/singlecut/M100_N200_T0_a50_ccg.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>instance</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>num cuts</t>
   </si>
   <si>
     <t>num variables</t>
@@ -68,6 +71,9 @@
   </si>
   <si>
     <t>MP gap</t>
+  </si>
+  <si>
+    <t>MP solve time</t>
   </si>
   <si>
     <t>Worst violation</t>
@@ -425,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,265 +462,298 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-2842.296041017097</v>
+        <v>-1446.9652710430423</v>
       </c>
       <c r="C2">
-        <v>9.221276875</v>
+        <v>57.372565892</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>1302</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>1205</v>
+        <v>5710</v>
       </c>
       <c r="H2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>6025</v>
+      </c>
+      <c r="I2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-2822.6466590257896</v>
+        <v>-1446.9608290558883</v>
       </c>
       <c r="C3">
-        <v>0.351200028</v>
+        <v>58.531908725</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>1302</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>1205</v>
+        <v>7914</v>
       </c>
       <c r="H3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>8435</v>
+      </c>
+      <c r="I3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-2833.9428537797485</v>
+        <v>-1447.500726073538</v>
       </c>
       <c r="C4">
-        <v>0.256793586</v>
+        <v>70.858782136</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>1302</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>1205</v>
+        <v>5710</v>
       </c>
       <c r="H4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>6025</v>
+      </c>
+      <c r="I4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-2831.439230886428</v>
+        <v>-1443.4704065645687</v>
       </c>
       <c r="C5">
-        <v>0.340200805</v>
+        <v>4.135618115</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>1302</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>1205</v>
+        <v>3506</v>
       </c>
       <c r="H5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>3615</v>
+      </c>
+      <c r="I5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-2827.7027437026527</v>
+        <v>-1452.0331302759791</v>
       </c>
       <c r="C6">
-        <v>0.331666575</v>
+        <v>46.724729529</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>1302</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>1205</v>
+        <v>6812</v>
       </c>
       <c r="H6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>7230</v>
+      </c>
+      <c r="I6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-2814.6468056472245</v>
+        <v>-1434.9010419212866</v>
       </c>
       <c r="C7">
-        <v>0.286392462</v>
+        <v>23.053937975</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>1302</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>1205</v>
+        <v>4608</v>
       </c>
       <c r="H7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>4820</v>
+      </c>
+      <c r="I7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-2835.7587958407307</v>
+        <v>-1448.9218603409522</v>
       </c>
       <c r="C8">
-        <v>0.277819273</v>
+        <v>12.563448009</v>
       </c>
       <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8">
-        <v>1302</v>
-      </c>
       <c r="G8">
-        <v>1205</v>
+        <v>2404</v>
       </c>
       <c r="H8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>2410</v>
+      </c>
+      <c r="I8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-2809.4179589270043</v>
+        <v>-1434.8107321419523</v>
       </c>
       <c r="C9">
-        <v>0.297232678</v>
+        <v>23.136800097</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F9">
-        <v>1302</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>1205</v>
+        <v>3506</v>
       </c>
       <c r="H9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>3615</v>
+      </c>
+      <c r="I9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-2818.3868086468374</v>
+        <v>-1443.5569295182488</v>
       </c>
       <c r="C10">
-        <v>0.294105017</v>
+        <v>72.997715762</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10">
-        <v>1302</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>1205</v>
+        <v>6812</v>
       </c>
       <c r="H10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>7230</v>
+      </c>
+      <c r="I10">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-2843.7879645900193</v>
+        <v>-1453.0961120243376</v>
       </c>
       <c r="C11">
-        <v>0.261332152</v>
+        <v>29.508109439</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F11">
-        <v>1302</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>1205</v>
+        <v>4608</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>4820</v>
+      </c>
+      <c r="I11">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -724,27 +763,30 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -755,20 +797,111 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>55.43146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.04773258686755371</v>
+      </c>
+      <c r="E2">
+        <v>166.29438</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-2818.3868086468374</v>
+        <v>-1555.2732374664438</v>
       </c>
       <c r="C3">
-        <v>1.6135022683589025e-14</v>
+        <v>0.0</v>
       </c>
       <c r="D3">
+        <v>0.2282632302590332</v>
+      </c>
+      <c r="E3">
+        <v>9.50679</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-1455.6803742769807</v>
+      </c>
+      <c r="C4">
+        <v>0.09609493839469845</v>
+      </c>
+      <c r="D4">
+        <v>0.995140019293335</v>
+      </c>
+      <c r="E4">
+        <v>3.48704</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-1451.5506276094434</v>
+      </c>
+      <c r="C5">
+        <v>0.09331778980418116</v>
+      </c>
+      <c r="D5">
+        <v>2.1704848420615233</v>
+      </c>
+      <c r="E5">
+        <v>3.84706</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-1444.7019535344657</v>
+      </c>
+      <c r="C6">
+        <v>0.09441973990199459</v>
+      </c>
+      <c r="D6">
+        <v>3.901012587386719</v>
+      </c>
+      <c r="E6">
+        <v>2.25399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-1443.6868585999382</v>
+      </c>
+      <c r="C7">
+        <v>0.09240242625182056</v>
+      </c>
+      <c r="D7">
+        <v>18.550238142112427</v>
+      </c>
+      <c r="E7">
+        <v>0.96135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-1443.5569295182488</v>
+      </c>
+      <c r="C8">
+        <v>0.0787852283823519</v>
+      </c>
+      <c r="D8">
+        <v>45.15714561749158</v>
+      </c>
+      <c r="E8">
         <v>0.0</v>
       </c>
     </row>
@@ -779,27 +912,30 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -810,20 +946,77 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>53.89653</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.042355557942993165</v>
+      </c>
+      <c r="E2">
+        <v>161.68958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-2843.7879645900193</v>
+        <v>-1485.844112546843</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.08725499097514526</v>
       </c>
       <c r="D3">
+        <v>0.7303898063720703</v>
+      </c>
+      <c r="E3">
+        <v>4.48011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-1460.753701481637</v>
+      </c>
+      <c r="C4">
+        <v>0.08495786190940423</v>
+      </c>
+      <c r="D4">
+        <v>1.6203208808377685</v>
+      </c>
+      <c r="E4">
+        <v>3.30152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-1454.435793063602</v>
+      </c>
+      <c r="C5">
+        <v>0.09032582918309154</v>
+      </c>
+      <c r="D5">
+        <v>3.611929396534424</v>
+      </c>
+      <c r="E5">
+        <v>3.50631</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-1453.0961120243376</v>
+      </c>
+      <c r="C6">
+        <v>0.09669608403368547</v>
+      </c>
+      <c r="D6">
+        <v>22.265925743133057</v>
+      </c>
+      <c r="E6">
         <v>0.0</v>
       </c>
     </row>
@@ -834,27 +1027,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -865,20 +1061,94 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>54.48985</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>1.0454573246523438</v>
+      </c>
+      <c r="E2">
+        <v>163.46956</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-2842.296041017097</v>
+        <v>-1519.0292988505048</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.09872120101128593</v>
       </c>
       <c r="D3">
+        <v>0.2787286971663818</v>
+      </c>
+      <c r="E3">
+        <v>6.38364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-1459.0115597824442</v>
+      </c>
+      <c r="C4">
+        <v>0.09477761695865726</v>
+      </c>
+      <c r="D4">
+        <v>1.0711741178790284</v>
+      </c>
+      <c r="E4">
+        <v>3.29362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-1449.0612211792713</v>
+      </c>
+      <c r="C5">
+        <v>0.09848491355247706</v>
+      </c>
+      <c r="D5">
+        <v>9.052611893627319</v>
+      </c>
+      <c r="E5">
+        <v>3.0308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-1447.0211730498563</v>
+      </c>
+      <c r="C6">
+        <v>0.0978999961691501</v>
+      </c>
+      <c r="D6">
+        <v>13.854046496455078</v>
+      </c>
+      <c r="E6">
+        <v>0.69499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-1446.9652710430423</v>
+      </c>
+      <c r="C7">
+        <v>0.0805836886023444</v>
+      </c>
+      <c r="D7">
+        <v>23.46503149693982</v>
+      </c>
+      <c r="E7">
         <v>0.0</v>
       </c>
     </row>
@@ -889,27 +1159,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -920,20 +1193,128 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>54.8654</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05275952183581543</v>
+      </c>
+      <c r="E2">
+        <v>164.5962</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-2822.6466590257896</v>
+        <v>-1476.9600344758587</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.08678741657690968</v>
       </c>
       <c r="D3">
+        <v>0.5176227324981689</v>
+      </c>
+      <c r="E3">
+        <v>4.76537</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-1466.8422354836687</v>
+      </c>
+      <c r="C4">
+        <v>0.09735982403870524</v>
+      </c>
+      <c r="D4">
+        <v>0.874597497347046</v>
+      </c>
+      <c r="E4">
+        <v>4.72401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-1447.9408139024035</v>
+      </c>
+      <c r="C5">
+        <v>0.09652868082245353</v>
+      </c>
+      <c r="D5">
+        <v>1.0430991218182373</v>
+      </c>
+      <c r="E5">
+        <v>2.11189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-1447.2494794751453</v>
+      </c>
+      <c r="C6">
+        <v>0.0984325441200139</v>
+      </c>
+      <c r="D6">
+        <v>13.23758249525537</v>
+      </c>
+      <c r="E6">
+        <v>0.89414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-1447.0214402299237</v>
+      </c>
+      <c r="C7">
+        <v>0.09446633194139618</v>
+      </c>
+      <c r="D7">
+        <v>15.682078461315063</v>
+      </c>
+      <c r="E7">
+        <v>0.27302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-1446.962227673708</v>
+      </c>
+      <c r="C8">
+        <v>0.08960841144293856</v>
+      </c>
+      <c r="D8">
+        <v>21.74893188207202</v>
+      </c>
+      <c r="E8">
+        <v>0.01914</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>-1446.9608290558883</v>
+      </c>
+      <c r="C9">
+        <v>0.019948737599046956</v>
+      </c>
+      <c r="D9">
+        <v>3.55186782582666</v>
+      </c>
+      <c r="E9">
         <v>0.0</v>
       </c>
     </row>
@@ -944,27 +1325,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -975,20 +1359,94 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>54.6379</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.04578363931005859</v>
+      </c>
+      <c r="E2">
+        <v>163.91369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-2833.9428537797485</v>
+        <v>-1451.8374110459572</v>
       </c>
       <c r="C3">
-        <v>1.604645451053935e-14</v>
+        <v>0.04829314685750128</v>
       </c>
       <c r="D3">
+        <v>1.2462355334409179</v>
+      </c>
+      <c r="E3">
+        <v>2.79877</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-1450.4840347164204</v>
+      </c>
+      <c r="C4">
+        <v>0.09564300771735999</v>
+      </c>
+      <c r="D4">
+        <v>1.2917649646983642</v>
+      </c>
+      <c r="E4">
+        <v>2.75441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-1449.1347457612687</v>
+      </c>
+      <c r="C5">
+        <v>0.08216699188762795</v>
+      </c>
+      <c r="D5">
+        <v>6.297924371696167</v>
+      </c>
+      <c r="E5">
+        <v>2.05067</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-1447.5200124173712</v>
+      </c>
+      <c r="C6">
+        <v>0.09937492593775091</v>
+      </c>
+      <c r="D6">
+        <v>30.78296679162988</v>
+      </c>
+      <c r="E6">
+        <v>0.19586</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-1447.500726073538</v>
+      </c>
+      <c r="C7">
+        <v>0.0876842445743447</v>
+      </c>
+      <c r="D7">
+        <v>30.01758404971167</v>
+      </c>
+      <c r="E7">
         <v>0.0</v>
       </c>
     </row>
@@ -999,27 +1457,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1030,20 +1491,60 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>55.13965</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06376274483581543</v>
+      </c>
+      <c r="E2">
+        <v>165.41896</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-2831.439230886428</v>
+        <v>-1466.7690372617967</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.09822780826912249</v>
       </c>
       <c r="D3">
+        <v>0.4812928397174072</v>
+      </c>
+      <c r="E3">
+        <v>5.78741</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-1445.4038868704158</v>
+      </c>
+      <c r="C4">
+        <v>0.08585709191543224</v>
+      </c>
+      <c r="D4">
+        <v>1.0012999599039307</v>
+      </c>
+      <c r="E4">
+        <v>2.36159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-1443.4704065645687</v>
+      </c>
+      <c r="C5">
+        <v>0.06338742358819714</v>
+      </c>
+      <c r="D5">
+        <v>2.122302059713501</v>
+      </c>
+      <c r="E5">
         <v>0.0</v>
       </c>
     </row>
@@ -1054,27 +1555,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1085,20 +1589,111 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>55.55816</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05374017913964844</v>
+      </c>
+      <c r="E2">
+        <v>166.67449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-2827.7027437026527</v>
+        <v>-1497.5128608682417</v>
       </c>
       <c r="C3">
-        <v>3.2163730922507955e-14</v>
+        <v>0.05310464875464924</v>
       </c>
       <c r="D3">
+        <v>0.2899555887976074</v>
+      </c>
+      <c r="E3">
+        <v>5.46588</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-1476.6321401611185</v>
+      </c>
+      <c r="C4">
+        <v>0.09934879145723276</v>
+      </c>
+      <c r="D4">
+        <v>0.8370534485076904</v>
+      </c>
+      <c r="E4">
+        <v>4.76627</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-1461.051571432437</v>
+      </c>
+      <c r="C5">
+        <v>0.09441651938794769</v>
+      </c>
+      <c r="D5">
+        <v>1.1196158158670655</v>
+      </c>
+      <c r="E5">
+        <v>2.19666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-1455.0732357384202</v>
+      </c>
+      <c r="C6">
+        <v>0.09911254471774397</v>
+      </c>
+      <c r="D6">
+        <v>2.3458509228514406</v>
+      </c>
+      <c r="E6">
+        <v>2.08639</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-1452.7138775896392</v>
+      </c>
+      <c r="C7">
+        <v>0.09966820400636647</v>
+      </c>
+      <c r="D7">
+        <v>13.856342145375855</v>
+      </c>
+      <c r="E7">
+        <v>1.21937</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-1452.0331302759791</v>
+      </c>
+      <c r="C8">
+        <v>0.08787367583773674</v>
+      </c>
+      <c r="D8">
+        <v>26.66990216781946</v>
+      </c>
+      <c r="E8">
         <v>0.0</v>
       </c>
     </row>
@@ -1109,27 +1704,30 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1140,20 +1738,77 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>54.7189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.04043855706860352</v>
+      </c>
+      <c r="E2">
+        <v>164.15669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-2814.6468056472245</v>
+        <v>-1526.2037812501403</v>
       </c>
       <c r="C3">
-        <v>1.6156462330337726e-14</v>
+        <v>0.0</v>
       </c>
       <c r="D3">
+        <v>0.2543893981898193</v>
+      </c>
+      <c r="E3">
+        <v>7.61599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-1445.0887460586182</v>
+      </c>
+      <c r="C4">
+        <v>0.09668389662686087</v>
+      </c>
+      <c r="D4">
+        <v>1.001026244085083</v>
+      </c>
+      <c r="E4">
+        <v>5.66971</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-1436.1770304292436</v>
+      </c>
+      <c r="C5">
+        <v>0.09785696966753447</v>
+      </c>
+      <c r="D5">
+        <v>2.6119977270689696</v>
+      </c>
+      <c r="E5">
+        <v>1.93681</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-1434.9010419212866</v>
+      </c>
+      <c r="C6">
+        <v>0.09892833071857278</v>
+      </c>
+      <c r="D6">
+        <v>18.38651708580359</v>
+      </c>
+      <c r="E6">
         <v>0.0</v>
       </c>
     </row>
@@ -1164,27 +1819,30 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1195,20 +1853,43 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>54.71129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.048016681236938474</v>
+      </c>
+      <c r="E2">
+        <v>164.13388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-2835.7587958407307</v>
+        <v>-1461.4150321021166</v>
       </c>
       <c r="C3">
-        <v>3.2072357603434815e-14</v>
+        <v>0.07597714871340905</v>
       </c>
       <c r="D3">
+        <v>1.2406503514633789</v>
+      </c>
+      <c r="E3">
+        <v>3.75464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-1448.9218603409522</v>
+      </c>
+      <c r="C4">
+        <v>0.09441551190333715</v>
+      </c>
+      <c r="D4">
+        <v>10.871862844118407</v>
+      </c>
+      <c r="E4">
         <v>0.0</v>
       </c>
     </row>
@@ -1219,27 +1900,30 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1250,20 +1934,60 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>55.68492</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.039667963907958986</v>
+      </c>
+      <c r="E2">
+        <v>167.05476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-2809.4179589270043</v>
+        <v>-1438.7371686933227</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.09586077806903949</v>
       </c>
       <c r="D3">
+        <v>0.9619007712879639</v>
+      </c>
+      <c r="E3">
+        <v>3.75804</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-1436.463571723838</v>
+      </c>
+      <c r="C4">
+        <v>0.09424452775090625</v>
+      </c>
+      <c r="D4">
+        <v>3.3260178343874514</v>
+      </c>
+      <c r="E4">
+        <v>2.71654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-1434.8107321419523</v>
+      </c>
+      <c r="C5">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>17.75207070621167</v>
+      </c>
+      <c r="E5">
         <v>0.0</v>
       </c>
     </row>
